--- a/data/so-diem.xlsx
+++ b/data/so-diem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\grades-portal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA8F562-18A8-4E29-BE49-BC9511021F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE882BB-2797-4815-B159-C5E1A84B3225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{1EF14012-7694-4211-A43A-BA5E23E1AA9F}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="832">
   <si>
     <t>STT</t>
   </si>
@@ -2376,6 +2376,168 @@
   </si>
   <si>
     <t>7972261419</t>
+  </si>
+  <si>
+    <t>7939735860</t>
+  </si>
+  <si>
+    <t>7982708662</t>
+  </si>
+  <si>
+    <t>7926735798</t>
+  </si>
+  <si>
+    <t>7925828318</t>
+  </si>
+  <si>
+    <t>7965951207</t>
+  </si>
+  <si>
+    <t>7949028877</t>
+  </si>
+  <si>
+    <t>7965951096</t>
+  </si>
+  <si>
+    <t>7941660363</t>
+  </si>
+  <si>
+    <t>7965951098</t>
+  </si>
+  <si>
+    <t>7965951059</t>
+  </si>
+  <si>
+    <t>7937595064</t>
+  </si>
+  <si>
+    <t>7924539916</t>
+  </si>
+  <si>
+    <t>7966247118</t>
+  </si>
+  <si>
+    <t>7926730716</t>
+  </si>
+  <si>
+    <t>7965951256</t>
+  </si>
+  <si>
+    <t>7927755049</t>
+  </si>
+  <si>
+    <t>7925401212</t>
+  </si>
+  <si>
+    <t>7962071478</t>
+  </si>
+  <si>
+    <t>7963199074</t>
+  </si>
+  <si>
+    <t>3465951222</t>
+  </si>
+  <si>
+    <t>7926731173</t>
+  </si>
+  <si>
+    <t>7928261265</t>
+  </si>
+  <si>
+    <t>7988530875</t>
+  </si>
+  <si>
+    <t>7951465925</t>
+  </si>
+  <si>
+    <t>7942595748</t>
+  </si>
+  <si>
+    <t>7965951151</t>
+  </si>
+  <si>
+    <t>8006607113</t>
+  </si>
+  <si>
+    <t>2107018@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2110001@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2106077@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2106043@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2106157@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2110016@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2106050@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2107019@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2106221@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2106160@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2108015@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2106158@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2107012@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2107020@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2106203@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2106019@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2107033@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2107003@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2108002@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2106171@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2106095@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2106205@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2110030@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2106219@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2110032@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2106099@lsts.edu.vn</t>
+  </si>
+  <si>
+    <t>2107049@lsts.edu.vn</t>
   </si>
 </sst>
 </file>
@@ -2927,7 +3089,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3852,7 +4014,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4765,7 +4927,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R29" sqref="Q29:R30"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5633,14 +5795,14 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="14" max="14" width="16.140625" customWidth="1"/>
   </cols>
@@ -6512,7 +6674,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7383,7 +7545,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8267,6 +8429,15 @@
       <c r="B2" t="s">
         <v>375</v>
       </c>
+      <c r="C2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D2">
+        <v>2107018</v>
+      </c>
+      <c r="E2" t="s">
+        <v>805</v>
+      </c>
       <c r="F2" t="s">
         <v>379</v>
       </c>
@@ -8281,6 +8452,15 @@
       <c r="B3" t="s">
         <v>375</v>
       </c>
+      <c r="C3" t="s">
+        <v>779</v>
+      </c>
+      <c r="D3">
+        <v>2110001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>806</v>
+      </c>
       <c r="F3" t="s">
         <v>380</v>
       </c>
@@ -8295,6 +8475,15 @@
       <c r="B4" t="s">
         <v>375</v>
       </c>
+      <c r="C4" t="s">
+        <v>780</v>
+      </c>
+      <c r="D4">
+        <v>2106077</v>
+      </c>
+      <c r="E4" t="s">
+        <v>807</v>
+      </c>
       <c r="F4" t="s">
         <v>381</v>
       </c>
@@ -8309,6 +8498,15 @@
       <c r="B5" t="s">
         <v>376</v>
       </c>
+      <c r="C5" t="s">
+        <v>781</v>
+      </c>
+      <c r="D5">
+        <v>2106043</v>
+      </c>
+      <c r="E5" t="s">
+        <v>808</v>
+      </c>
       <c r="F5" t="s">
         <v>382</v>
       </c>
@@ -8323,6 +8521,15 @@
       <c r="B6" t="s">
         <v>375</v>
       </c>
+      <c r="C6" t="s">
+        <v>782</v>
+      </c>
+      <c r="D6">
+        <v>2106157</v>
+      </c>
+      <c r="E6" t="s">
+        <v>809</v>
+      </c>
       <c r="F6" t="s">
         <v>383</v>
       </c>
@@ -8337,6 +8544,15 @@
       <c r="B7" t="s">
         <v>376</v>
       </c>
+      <c r="C7" t="s">
+        <v>783</v>
+      </c>
+      <c r="D7">
+        <v>2110016</v>
+      </c>
+      <c r="E7" t="s">
+        <v>810</v>
+      </c>
       <c r="F7" t="s">
         <v>384</v>
       </c>
@@ -8351,6 +8567,15 @@
       <c r="B8" t="s">
         <v>377</v>
       </c>
+      <c r="C8" t="s">
+        <v>784</v>
+      </c>
+      <c r="D8">
+        <v>2106050</v>
+      </c>
+      <c r="E8" t="s">
+        <v>811</v>
+      </c>
       <c r="F8" t="s">
         <v>385</v>
       </c>
@@ -8365,6 +8590,15 @@
       <c r="B9" t="s">
         <v>375</v>
       </c>
+      <c r="C9" t="s">
+        <v>785</v>
+      </c>
+      <c r="D9">
+        <v>2107019</v>
+      </c>
+      <c r="E9" t="s">
+        <v>812</v>
+      </c>
       <c r="F9" t="s">
         <v>386</v>
       </c>
@@ -8379,6 +8613,15 @@
       <c r="B10" t="s">
         <v>377</v>
       </c>
+      <c r="C10" t="s">
+        <v>786</v>
+      </c>
+      <c r="D10">
+        <v>2106221</v>
+      </c>
+      <c r="E10" t="s">
+        <v>813</v>
+      </c>
       <c r="F10" t="s">
         <v>387</v>
       </c>
@@ -8393,6 +8636,15 @@
       <c r="B11" t="s">
         <v>375</v>
       </c>
+      <c r="C11" t="s">
+        <v>787</v>
+      </c>
+      <c r="D11">
+        <v>2106160</v>
+      </c>
+      <c r="E11" t="s">
+        <v>814</v>
+      </c>
       <c r="F11" t="s">
         <v>388</v>
       </c>
@@ -8407,6 +8659,15 @@
       <c r="B12" t="s">
         <v>375</v>
       </c>
+      <c r="C12" t="s">
+        <v>788</v>
+      </c>
+      <c r="D12">
+        <v>2108015</v>
+      </c>
+      <c r="E12" t="s">
+        <v>815</v>
+      </c>
       <c r="F12" t="s">
         <v>389</v>
       </c>
@@ -8421,6 +8682,15 @@
       <c r="B13" t="s">
         <v>375</v>
       </c>
+      <c r="C13" t="s">
+        <v>789</v>
+      </c>
+      <c r="D13">
+        <v>2106158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>816</v>
+      </c>
       <c r="F13" t="s">
         <v>390</v>
       </c>
@@ -8435,6 +8705,15 @@
       <c r="B14" t="s">
         <v>378</v>
       </c>
+      <c r="C14" t="s">
+        <v>790</v>
+      </c>
+      <c r="D14">
+        <v>2107012</v>
+      </c>
+      <c r="E14" t="s">
+        <v>817</v>
+      </c>
       <c r="F14" t="s">
         <v>391</v>
       </c>
@@ -8449,6 +8728,15 @@
       <c r="B15" t="s">
         <v>377</v>
       </c>
+      <c r="C15" t="s">
+        <v>791</v>
+      </c>
+      <c r="D15">
+        <v>2107020</v>
+      </c>
+      <c r="E15" t="s">
+        <v>818</v>
+      </c>
       <c r="F15" t="s">
         <v>392</v>
       </c>
@@ -8463,6 +8751,15 @@
       <c r="B16" t="s">
         <v>375</v>
       </c>
+      <c r="C16" t="s">
+        <v>792</v>
+      </c>
+      <c r="D16">
+        <v>2106203</v>
+      </c>
+      <c r="E16" t="s">
+        <v>819</v>
+      </c>
       <c r="F16" t="s">
         <v>393</v>
       </c>
@@ -8477,6 +8774,15 @@
       <c r="B17" t="s">
         <v>377</v>
       </c>
+      <c r="C17" t="s">
+        <v>793</v>
+      </c>
+      <c r="D17">
+        <v>2106019</v>
+      </c>
+      <c r="E17" t="s">
+        <v>820</v>
+      </c>
       <c r="F17" t="s">
         <v>394</v>
       </c>
@@ -8491,6 +8797,15 @@
       <c r="B18" t="s">
         <v>378</v>
       </c>
+      <c r="C18" t="s">
+        <v>794</v>
+      </c>
+      <c r="D18">
+        <v>2107033</v>
+      </c>
+      <c r="E18" t="s">
+        <v>821</v>
+      </c>
       <c r="F18" t="s">
         <v>395</v>
       </c>
@@ -8505,6 +8820,15 @@
       <c r="B19" t="s">
         <v>376</v>
       </c>
+      <c r="C19" t="s">
+        <v>795</v>
+      </c>
+      <c r="D19">
+        <v>2107003</v>
+      </c>
+      <c r="E19" t="s">
+        <v>822</v>
+      </c>
       <c r="F19" t="s">
         <v>396</v>
       </c>
@@ -8519,6 +8843,15 @@
       <c r="B20" t="s">
         <v>376</v>
       </c>
+      <c r="C20" t="s">
+        <v>796</v>
+      </c>
+      <c r="D20">
+        <v>2108002</v>
+      </c>
+      <c r="E20" t="s">
+        <v>823</v>
+      </c>
       <c r="F20" t="s">
         <v>397</v>
       </c>
@@ -8533,6 +8866,15 @@
       <c r="B21" t="s">
         <v>377</v>
       </c>
+      <c r="C21" t="s">
+        <v>797</v>
+      </c>
+      <c r="D21">
+        <v>2106171</v>
+      </c>
+      <c r="E21" t="s">
+        <v>824</v>
+      </c>
       <c r="F21" t="s">
         <v>398</v>
       </c>
@@ -8547,6 +8889,15 @@
       <c r="B22" t="s">
         <v>376</v>
       </c>
+      <c r="C22" t="s">
+        <v>798</v>
+      </c>
+      <c r="D22">
+        <v>2106095</v>
+      </c>
+      <c r="E22" t="s">
+        <v>825</v>
+      </c>
       <c r="F22" t="s">
         <v>399</v>
       </c>
@@ -8561,6 +8912,15 @@
       <c r="B23" t="s">
         <v>377</v>
       </c>
+      <c r="C23" t="s">
+        <v>799</v>
+      </c>
+      <c r="D23">
+        <v>2106205</v>
+      </c>
+      <c r="E23" t="s">
+        <v>826</v>
+      </c>
       <c r="F23" t="s">
         <v>400</v>
       </c>
@@ -8575,6 +8935,15 @@
       <c r="B24" t="s">
         <v>376</v>
       </c>
+      <c r="C24" t="s">
+        <v>800</v>
+      </c>
+      <c r="D24">
+        <v>2110030</v>
+      </c>
+      <c r="E24" t="s">
+        <v>827</v>
+      </c>
       <c r="F24" t="s">
         <v>401</v>
       </c>
@@ -8589,6 +8958,15 @@
       <c r="B25" t="s">
         <v>377</v>
       </c>
+      <c r="C25" t="s">
+        <v>801</v>
+      </c>
+      <c r="D25">
+        <v>2106219</v>
+      </c>
+      <c r="E25" t="s">
+        <v>828</v>
+      </c>
       <c r="F25" t="s">
         <v>402</v>
       </c>
@@ -8603,6 +8981,15 @@
       <c r="B26" t="s">
         <v>378</v>
       </c>
+      <c r="C26" t="s">
+        <v>802</v>
+      </c>
+      <c r="D26">
+        <v>2110032</v>
+      </c>
+      <c r="E26" t="s">
+        <v>829</v>
+      </c>
       <c r="F26" t="s">
         <v>403</v>
       </c>
@@ -8617,6 +9004,15 @@
       <c r="B27" t="s">
         <v>376</v>
       </c>
+      <c r="C27" t="s">
+        <v>803</v>
+      </c>
+      <c r="D27">
+        <v>2106099</v>
+      </c>
+      <c r="E27" t="s">
+        <v>830</v>
+      </c>
       <c r="F27" t="s">
         <v>404</v>
       </c>
@@ -8630,6 +9026,15 @@
       </c>
       <c r="B28" t="s">
         <v>377</v>
+      </c>
+      <c r="C28" t="s">
+        <v>804</v>
+      </c>
+      <c r="D28">
+        <v>2107049</v>
+      </c>
+      <c r="E28" t="s">
+        <v>831</v>
       </c>
       <c r="F28" t="s">
         <v>405</v>
@@ -8648,23 +9053,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="64e27462-61f7-439c-88b3-7ca10cd645ec" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x01010069F5FA6F5E99D64B892633AF1293AFE9" ma:contentTypeVersion="16" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="d2d5385ae45fc0df6c563476e54477bc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="64e27462-61f7-439c-88b3-7ca10cd645ec" xmlns:ns4="4329cf8b-2919-4c61-9f30-6ea716fa69c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b90872c2c5aa4b2a61f2c9ac5966a13" ns3:_="" ns4:_="">
     <xsd:import namespace="64e27462-61f7-439c-88b3-7ca10cd645ec"/>
@@ -8903,7 +9291,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="64e27462-61f7-439c-88b3-7ca10cd645ec" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C04A264A-B108-430A-B3AF-4CD6D510722A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="64e27462-61f7-439c-88b3-7ca10cd645ec"/>
+    <ds:schemaRef ds:uri="4329cf8b-2919-4c61-9f30-6ea716fa69c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2173007-016A-4A81-9620-65BD135EA778}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8920,29 +9344,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB00F7F1-EDF3-4F0C-9299-8D2EDB28E76E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C04A264A-B108-430A-B3AF-4CD6D510722A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="64e27462-61f7-439c-88b3-7ca10cd645ec"/>
-    <ds:schemaRef ds:uri="4329cf8b-2919-4c61-9f30-6ea716fa69c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>